--- a/src/resources/data/loginTestData.xlsx
+++ b/src/resources/data/loginTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Framework\WebdriverIO\webdriverio-framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Framework\WebdriverIO\webdriverio-framework\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9838C646-E6D6-4D18-828E-E667F12F1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DFB28-82CD-4520-A7E8-7A11A0CD8CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{EF803BAA-8E30-40DA-8988-AAC12BAA3B9E}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11160" xr2:uid="{EF803BAA-8E30-40DA-8988-AAC12BAA3B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -35,10 +35,7 @@
     <t>learning</t>
   </si>
   <si>
-    <t>rahulshettyacademy1</t>
-  </si>
-  <si>
-    <t>learning1</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -879,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79624B2E-F81F-49D2-BEB6-0BC40DE21444}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,10 +894,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +918,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
